--- a/biology/Zoologie/Corbicula/Corbicula.xlsx
+++ b/biology/Zoologie/Corbicula/Corbicula.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Corbicula est un genre de mollusques bivalves d'eau douce et d'eau saumâtre de la famille des Corbiculidae décrit par le zoologiste autrichien Johann Carl (Karl) Megerle von Mühlfeld en 1811[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Corbicula est un genre de mollusques bivalves d'eau douce et d'eau saumâtre de la famille des Corbiculidae décrit par le zoologiste autrichien Johann Carl (Karl) Megerle von Mühlfeld en 1811.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom corbicule vient du bas latin corbĭcŭla, petite corbeille en français[2], diminutif du latin classique corbis, corbeille en français.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom corbicule vient du bas latin corbĭcŭla, petite corbeille en français, diminutif du latin classique corbis, corbeille en français.
 </t>
         </is>
       </c>
@@ -544,8 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Description originale
-Description originale de Johann Karl Megerle von Mühlfeld (en allemand)[1] :
+          <t>Description originale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Description originale de Johann Karl Megerle von Mühlfeld (en allemand) :
 « Gattung. Die Korbmuschel. Corbicula.
 Die Schale ist zwey und gleichklappig, etwas abgerundet dreyeckig, mit ganzem Rande.
 Das Schlofs lieget beinahe in der Mitte, hat sechs Zähne und vier verlängerte, meistens gekerbte Seitenzähne.
@@ -557,9 +576,47 @@
 La charnière est située presque au milieu et se compose de six dents [2x3 dents cardinales] et quatre allongées généralement crantées [2x2 dents latérales].
 L'espèce habite les eaux salées. La corbicule de l’Euphrate. Corbicula fluminalis.
 La coquille un peu triangulaire est épaisse, olivâtre, violacée à l'intérieur, à nervures arrondies ovales concentriques, lisse à l'intérieur avec les dents antérieures crénelées. »
-Éléments d'identification
-La coquille
- Elle est bivalve symétrique épaisse et mesure jusqu'à 3 centimètres chez les adultes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Corbicula</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Corbicula</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Éléments d'identification</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>La coquille</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Elle est bivalve symétrique épaisse et mesure jusqu'à 3 centimètres chez les adultes.
  Sa forme est globalement triangulaire arrondie.
  La face dorsale présente les particularités suivantes :
    Des côtes d'accroissement saillantes arrondies ovales concentriques régulièrement espacées.
@@ -571,64 +628,7 @@
    3 dents cardinales sur chaque valve.
    2 paires de dents latérales fines et allongées sur la valve droite.
    1 paire de dents latérales fines et allongées sur la valve gauche.
-   Des dents latérales généralement crénelées.
-L'animal
-L'anatomie de Corbicula est semblable à celle des autres bivalves avec des siphons courts munis de papilles.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Corbicula</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Corbicula</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Habitat et répartition</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aire de répartition
-Le genre  Corbicula est naturellement présent dans la partie sud de l'Asie, dans la partie ouest de l'Océanie et en Afrique. Depuis le début du XXe siècle, plusieurs espèces du genre Corbicula ont été introduites en Amérique et en Europe[3] où leur expansion invasive gagne peu à peu l'ensemble des réseaux hydrographiques (dont en France[4],[5]).
-Aire de répartition naturelle
-La zone de répartition naturelle du genre Corbicula inclut les régions subtropicales d'Afrique (incluant Madagascar) et d'Asie (incluant le Japon, la Corée[7], la partie russe de l'Amour[8]) et la partie Ouest de l'Océanie (incluant la Malaisie, Bornéo, les Philippines, la Nouvelle-Guinée et l'Est de l'Australie)[9].
-Espèces invasives
-Plusieurs espèces du genre Corbicula sont considérées comme invasives en dehors de leurs zones naturelles de répartition et notamment en Europe et en Amérique. Il s'agit pour les plus connues de Corbicula fluminea et Corbicula fluminalis mais Corbicula largillierti, Corbicula manilensis et Corbicula leana sont également présentes sur le continent américain[10],[11]. Il est à noter que le genre Corbicula est présent dans les horizons fossiles d'Europe et d'Amérique du Nord avant la dernière glaciation et que certains auteurs considèrent sa réapparition comme une recolonisation[12].
-L'expansion de Corbicula se poursuit et est susceptible d'être influencée par les modifications du climat[13].
-Amérique du Nord
-Le genre Corbicula est apparu en Amérique du Nord sur la côte Ouest entre le début des années 1920 et la fin des années 1930. La première mention du genre est faite en 1924 sur la base de la découverte d'un animal mort sur une plage de Nanaimo sur l’île de Vancouver au Canada[14] et la première découverte d'un animal vivant est faite dans la rivière Columbia en 1938[15]. À la fin des années 1950, il est observé sur la côte Est, dans la rivière Ohio en 1957 et dans la rivière Escambia en Floride en 1960[16]. Aujourd'hui, il a envahi l'essentiel du réseau hydrographique nord-américain, du Mexique[17],[18], en passant par les États-Unis où il est présent dans 38 États[13] (il n'a pas été répertorié dans le Montana et le Dakota du Nord), jusqu'au sud du Canada où il est présent sur l'île de Vancouver[19], dans le lac supérieur[20] et dans l'estuaire fluvial du Saint-Laurent[21]. Le genre Corbicula est également présent à Hawaï[22] depuis le début des années 1980.
-Amérique centrale et Antilles
-Le genre Corbicula est potentiellement présent dans l'ensemble de l'Amérique centrale[23],[24] mais n'a été identifié qu'au Panama[25].
-Dans les grandes Antilles, le genre Corbicula a été répertorié à Cuba[26] et Porto Rico[27],[28] et pourrait être présent dans l'ensemble des grandes et petites Antilles[24].
-Amérique du Sud
-La première notification du genre Corbicula en Amérique du Sud date de 1981 dans le Rio de La Plata[29] en Argentine. Le genre Corbicula est aujourd'hui présent dans deux zones distinctes d'Amérique du Sud[23],[24] : une zone sud bordant l'océan Atlantique sud et incluant une partie du Brésil[30] de la Catingua[31] à la frontière de l'Uruguay, du Paraguay[30],[32], de l'Argentine[30],[33],[34] et l'Uruguay[30],[32], et une zone nord jouxtant l'Amérique centrale et incluant la Colombie[35], le Venezuela[18], l'Équateur[17] et une partie du bassin de l'Amazone[31] au Brésil et au Pérou[17].
-Europe
-En Europe, le genre Corbicula a tout d'abord été identifié en France[5] et au Portugal au début des années 1980[36],[37]. Au cours des années 1980, Corbicula est rapporté en Allemagne dans le Rhin et aux Pays-Bas[38] ainsi qu'en Espagne[39]. À la fin des années 1990, il est observé en Belgique et au Luxembourg[40], en Autriche[41],en Suisse[42], en Italie dans le bassin du Pô[43] et en Roumanie[44] dans le Danube. Au début des années 2000, Corbicula est répertorié en Angleterre[45] dans la Tamise, en République Tchèque[46] dans l'Elbe, en Hongrie[47] et en Slovaquie[48] ainsi qu'en Bulgarie[49] et en Ukraine[50] dans le Danube. Il est identifié en Pologne[51] où il atteint la Vistule[52]. À la fin des années 2000, il est observé en Serbie[53] et en Moldavie[54] dans le Danube. Au début des années 2010, le genre Corbicula est rapporté en Irlande[55].
-Asie
-Bien que le genre Corbicula soit naturellement présent en Asie, l'espèce Corbicula fluminea originaire de Chine est considérée invasive au Japon[56] où elle peut s'hybrider avec l'espèce autochtone Corbicula leana[57].
-Afrique
-Bien que la littérature fasse état d'une répartition originelle du genre Corbicula dans toute l'Afrique à l’exception du Sahara, de l'Afrique du nord et du nord du golfe de Guinée, l'observation de Corbicula fluminalis dans l'est de l'Afrique du Sud est récente[58]. En 2008, le genre Corbicula a été observé au Maroc[24].
-Habitat
-Le genre Corbicula peut être observé dans un large éventail d'habitats limniques depuis les eaux douces lotiques, des rivières et des fleuves, ou lentiques, des lacs et des étangs, jusqu'aux eaux saumâtres des estuaires et des lagons. Les espèces du genre Corbicula vivent sur une grande variété de substrats comme les fonds constitués de limon, d'argile, de sable ou de gravier[59].
-À l’exception de Corbicula japonica préférant les eaux saumâtres des estuaires[23], la majorité des espèces préfèrent les eaux douces bien qu'elles puissent tolérer des salinités jusqu'à 24 ppt[60] et s’acclimater aussi aux eaux saumâtres. Le genre Corbicula peut être observé dans des eaux dont la gamme de température s'étend de 2 à 30 °C[61] mais les basses températures limitent la reproduction, l'expulsion des jeunes ne pouvant avoir lieu qu'au-delà de 16 °C[62]. 
-Le genre Corbicula préfère les eaux vives riches en oxygène dissout[63] et où le renouvellement de l'apport en nourriture est constant avec une bonne qualité de l'eau[64],[65] mais peut être observé dans des eaux peu oxygénées[66]. Il résiste à la dessiccation et peut survivre enfoui[59].
-</t>
+   Des dents latérales généralement crénelées.</t>
         </is>
       </c>
     </row>
@@ -653,14 +653,22 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Interaction avec l'environnement</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Prédateurs
-Les prédateurs des espèces du genre Corbicula englobent une large variété d'espèces parmi lesquelles en premier lieu des poissons[67],[68] mais comprennent également canards[69], rats musqués[70], visons[70], ratons laveurs[70], loutres[70], sangliers[70], écrevisses[67] et platyhelminthes[67].
-Sur le continent américain, les espèces de poissons incluant Corbicula dans leur régime alimentaire incluent, entre autres, les esturgeons[71], le poisson chat bleu (Ictalurus furcatus)[71] ainsi que d'autres espèces de poissons chats (Ricola macrops[68], Pterodoras granulosus[68], Ameiurus serracanthus[71]), la carpe commune (Cyprinus carpio)[71], des poissons du genre Ictiobus (Ictiobus niger[71], Ictiobus bubalus[71]), le crapet à oreilles rouges (Lepomis microlophus)[71] et le crapet arlequin (Lepomis macrochirus)[71] ainsi que le malachigan (Aplodinotus grunniens)[71].
+          <t>Éléments d'identification</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>L'animal</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'anatomie de Corbicula est semblable à celle des autres bivalves avec des siphons courts munis de papilles.
 </t>
         </is>
       </c>
@@ -686,22 +694,18 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Corbicula et l'Homme</t>
+          <t>Habitat et répartition</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Utilisation comme nourriture humaine
-Les palourdes du genre Corbicula sont essentiellement consommées par l'Homme en Asie.
-Intoxications alimentaires
-Comme tous les bivalves, les espèces du genre Corbicula, organismes filtrant les particules organiques, peuvent être contaminées par des organismes pathogènes et leur consommation provoquer des intoxications alimentaires plus ou moins graves. La consommation du genre Corbicula peut présenter un risque d'intoxication à l'arsenic qui peut s'y accumuler[72].
-Les espèces du genre Corbicula peuvent contenir certains parasites et leur consommation provoquer la contraction de maladies intestinales comme la cryptosporidiose (par ingestion du genre Cryptosporidium)[73],[74], la giardiase (par ingestion du genre Giardia)[75] et l'echinostomiase (par ingestion du genre Echinostoma)[76].
-Aquariophilie
-Le genre Corbicula est parfois utilisé en aquariophilie d'eau douce[77], notamment pour son aspect esthétique. Outre l'aspect décoratif du bivalve (lorsqu'il sort en surface), sa capacité de filtration, des déjections des poissons, des algues et des bactéries[78] dont il peut se nourrir en épurant ainsi le milieu, lui confèrent un intérêt tout particulier pour les aquariophiles. En revanche, Corbicula n'a pas de capacités à réduire les nitrates et produit au contraire de l’ammoniaque[79] qui pourra être réduit en nitrite puis en nitrate par les bactéries nitrifiantes du milieu. Le relâchement accidentel des larves dans le milieu naturel est considéré comme un vecteur potentiel d'invasion[80].
-Utilisation dans le contrôle des pollutions
-Les espèces du genre Corbicula peuvent accumuler les métaux lourds[81], des polluants organiques comme les pesticides[82] ainsi que des bactéries et parasites[75] et peuvent être utilisées comme des marqueurs biologiques[83] permettant d'accéder au suivi de la qualité des eaux dans lesquelles elles vivent.
-Obstruction des systèmes de pompage
-L'apparition du genre Corbicula en Amérique du Nord et en Europe s'est accompagnée de sa prolifération dans les systèmes de pompage, reliés aux eaux dans lesquelles il est présent, allant jusqu'à leur obstruction[83]. Tous les systèmes, tels que les circuits d'irrigation, les captages pour l'alimentation en eau potable[84] et les prises d'eau des centrales thermiques[85] et nucléaires[86],[5] sont concernés. Aux États-Unis, dans le cas des centrales nucléaires, Corbicula obstrue les échangeurs de chaleur[87] dans le circuit de génération de vapeur et les systèmes de refroidissement de secours d'urgence[88]. Aux États-Unis, le coût lié à l'obstruction des systèmes de pompage par Corbicula est estimé à 1 milliard de dollars par an[86],[89].
+          <t>Aire de répartition</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre  Corbicula est naturellement présent dans la partie sud de l'Asie, dans la partie ouest de l'Océanie et en Afrique. Depuis le début du XXe siècle, plusieurs espèces du genre Corbicula ont été introduites en Amérique et en Europe où leur expansion invasive gagne peu à peu l'ensemble des réseaux hydrographiques (dont en France,).
 </t>
         </is>
       </c>
@@ -727,26 +731,425 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Habitat et répartition</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Aire de répartition</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Aire de répartition naturelle</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La zone de répartition naturelle du genre Corbicula inclut les régions subtropicales d'Afrique (incluant Madagascar) et d'Asie (incluant le Japon, la Corée, la partie russe de l'Amour) et la partie Ouest de l'Océanie (incluant la Malaisie, Bornéo, les Philippines, la Nouvelle-Guinée et l'Est de l'Australie).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Corbicula</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Corbicula</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Habitat et répartition</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Aire de répartition</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Espèces invasives</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs espèces du genre Corbicula sont considérées comme invasives en dehors de leurs zones naturelles de répartition et notamment en Europe et en Amérique. Il s'agit pour les plus connues de Corbicula fluminea et Corbicula fluminalis mais Corbicula largillierti, Corbicula manilensis et Corbicula leana sont également présentes sur le continent américain,. Il est à noter que le genre Corbicula est présent dans les horizons fossiles d'Europe et d'Amérique du Nord avant la dernière glaciation et que certains auteurs considèrent sa réapparition comme une recolonisation.
+L'expansion de Corbicula se poursuit et est susceptible d'être influencée par les modifications du climat.
+Amérique du Nord
+Le genre Corbicula est apparu en Amérique du Nord sur la côte Ouest entre le début des années 1920 et la fin des années 1930. La première mention du genre est faite en 1924 sur la base de la découverte d'un animal mort sur une plage de Nanaimo sur l’île de Vancouver au Canada et la première découverte d'un animal vivant est faite dans la rivière Columbia en 1938. À la fin des années 1950, il est observé sur la côte Est, dans la rivière Ohio en 1957 et dans la rivière Escambia en Floride en 1960. Aujourd'hui, il a envahi l'essentiel du réseau hydrographique nord-américain, du Mexique en passant par les États-Unis où il est présent dans 38 États (il n'a pas été répertorié dans le Montana et le Dakota du Nord), jusqu'au sud du Canada où il est présent sur l'île de Vancouver, dans le lac supérieur et dans l'estuaire fluvial du Saint-Laurent. Le genre Corbicula est également présent à Hawaï depuis le début des années 1980.
+Amérique centrale et Antilles
+Le genre Corbicula est potentiellement présent dans l'ensemble de l'Amérique centrale, mais n'a été identifié qu'au Panama.
+Dans les grandes Antilles, le genre Corbicula a été répertorié à Cuba et Porto Rico, et pourrait être présent dans l'ensemble des grandes et petites Antilles.
+Amérique du Sud
+La première notification du genre Corbicula en Amérique du Sud date de 1981 dans le Rio de La Plata en Argentine. Le genre Corbicula est aujourd'hui présent dans deux zones distinctes d'Amérique du Sud, : une zone sud bordant l'océan Atlantique sud et incluant une partie du Brésil de la Catingua à la frontière de l'Uruguay, du Paraguay de l'Argentine et l'Uruguay et une zone nord jouxtant l'Amérique centrale et incluant la Colombie, le Venezuela, l'Équateur et une partie du bassin de l'Amazone au Brésil et au Pérou.
+Europe
+En Europe, le genre Corbicula a tout d'abord été identifié en France et au Portugal au début des années 1980,. Au cours des années 1980, Corbicula est rapporté en Allemagne dans le Rhin et aux Pays-Bas ainsi qu'en Espagne. À la fin des années 1990, il est observé en Belgique et au Luxembourg, en Autriche,en Suisse, en Italie dans le bassin du Pô et en Roumanie dans le Danube. Au début des années 2000, Corbicula est répertorié en Angleterre dans la Tamise, en République Tchèque dans l'Elbe, en Hongrie et en Slovaquie ainsi qu'en Bulgarie et en Ukraine dans le Danube. Il est identifié en Pologne où il atteint la Vistule. À la fin des années 2000, il est observé en Serbie et en Moldavie dans le Danube. Au début des années 2010, le genre Corbicula est rapporté en Irlande.
+Asie
+Bien que le genre Corbicula soit naturellement présent en Asie, l'espèce Corbicula fluminea originaire de Chine est considérée invasive au Japon où elle peut s'hybrider avec l'espèce autochtone Corbicula leana.
+Afrique
+Bien que la littérature fasse état d'une répartition originelle du genre Corbicula dans toute l'Afrique à l’exception du Sahara, de l'Afrique du nord et du nord du golfe de Guinée, l'observation de Corbicula fluminalis dans l'est de l'Afrique du Sud est récente. En 2008, le genre Corbicula a été observé au Maroc.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Corbicula</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Corbicula</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Habitat et répartition</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Corbicula peut être observé dans un large éventail d'habitats limniques depuis les eaux douces lotiques, des rivières et des fleuves, ou lentiques, des lacs et des étangs, jusqu'aux eaux saumâtres des estuaires et des lagons. Les espèces du genre Corbicula vivent sur une grande variété de substrats comme les fonds constitués de limon, d'argile, de sable ou de gravier.
+À l’exception de Corbicula japonica préférant les eaux saumâtres des estuaires, la majorité des espèces préfèrent les eaux douces bien qu'elles puissent tolérer des salinités jusqu'à 24 ppt et s’acclimater aussi aux eaux saumâtres. Le genre Corbicula peut être observé dans des eaux dont la gamme de température s'étend de 2 à 30 °C mais les basses températures limitent la reproduction, l'expulsion des jeunes ne pouvant avoir lieu qu'au-delà de 16 °C. 
+Le genre Corbicula préfère les eaux vives riches en oxygène dissout et où le renouvellement de l'apport en nourriture est constant avec une bonne qualité de l'eau, mais peut être observé dans des eaux peu oxygénées. Il résiste à la dessiccation et peut survivre enfoui.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Corbicula</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Corbicula</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Interaction avec l'environnement</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Prédateurs</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les prédateurs des espèces du genre Corbicula englobent une large variété d'espèces parmi lesquelles en premier lieu des poissons, mais comprennent également canards, rats musqués, visons, ratons laveurs, loutres, sangliers, écrevisses et platyhelminthes.
+Sur le continent américain, les espèces de poissons incluant Corbicula dans leur régime alimentaire incluent, entre autres, les esturgeons, le poisson chat bleu (Ictalurus furcatus) ainsi que d'autres espèces de poissons chats (Ricola macrops, Pterodoras granulosus, Ameiurus serracanthus), la carpe commune (Cyprinus carpio), des poissons du genre Ictiobus (Ictiobus niger, Ictiobus bubalus), le crapet à oreilles rouges (Lepomis microlophus) et le crapet arlequin (Lepomis macrochirus) ainsi que le malachigan (Aplodinotus grunniens).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Corbicula</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Corbicula</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Corbicula et l'Homme</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Utilisation comme nourriture humaine</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les palourdes du genre Corbicula sont essentiellement consommées par l'Homme en Asie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Corbicula</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Corbicula</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Corbicula et l'Homme</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Intoxications alimentaires</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme tous les bivalves, les espèces du genre Corbicula, organismes filtrant les particules organiques, peuvent être contaminées par des organismes pathogènes et leur consommation provoquer des intoxications alimentaires plus ou moins graves. La consommation du genre Corbicula peut présenter un risque d'intoxication à l'arsenic qui peut s'y accumuler.
+Les espèces du genre Corbicula peuvent contenir certains parasites et leur consommation provoquer la contraction de maladies intestinales comme la cryptosporidiose (par ingestion du genre Cryptosporidium) la giardiase (par ingestion du genre Giardia) et l'echinostomiase (par ingestion du genre Echinostoma).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Corbicula</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Corbicula</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Corbicula et l'Homme</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Aquariophilie</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Corbicula est parfois utilisé en aquariophilie d'eau douce, notamment pour son aspect esthétique. Outre l'aspect décoratif du bivalve (lorsqu'il sort en surface), sa capacité de filtration, des déjections des poissons, des algues et des bactéries dont il peut se nourrir en épurant ainsi le milieu, lui confèrent un intérêt tout particulier pour les aquariophiles. En revanche, Corbicula n'a pas de capacités à réduire les nitrates et produit au contraire de l’ammoniaque qui pourra être réduit en nitrite puis en nitrate par les bactéries nitrifiantes du milieu. Le relâchement accidentel des larves dans le milieu naturel est considéré comme un vecteur potentiel d'invasion.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Corbicula</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Corbicula</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Corbicula et l'Homme</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Utilisation dans le contrôle des pollutions</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces du genre Corbicula peuvent accumuler les métaux lourds, des polluants organiques comme les pesticides ainsi que des bactéries et parasites et peuvent être utilisées comme des marqueurs biologiques permettant d'accéder au suivi de la qualité des eaux dans lesquelles elles vivent.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Corbicula</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Corbicula</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Corbicula et l'Homme</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Obstruction des systèmes de pompage</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'apparition du genre Corbicula en Amérique du Nord et en Europe s'est accompagnée de sa prolifération dans les systèmes de pompage, reliés aux eaux dans lesquelles il est présent, allant jusqu'à leur obstruction. Tous les systèmes, tels que les circuits d'irrigation, les captages pour l'alimentation en eau potable et les prises d'eau des centrales thermiques et nucléaires, sont concernés. Aux États-Unis, dans le cas des centrales nucléaires, Corbicula obstrue les échangeurs de chaleur dans le circuit de génération de vapeur et les systèmes de refroidissement de secours d'urgence. Aux États-Unis, le coût lié à l'obstruction des systèmes de pompage par Corbicula est estimé à 1 milliard de dollars par an,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Corbicula</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Corbicula</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Les espèces du genre Corbicula présentent une large variation de morphologie ce qui rend difficile leur identification[90], en particulier au stade juvénile, et peut conduire à décrire plus d'espèces que de nécessaire[90] ou au contraire conduire à des confusions[77].
-La liste des espèces présentée ci-après est probablement incomplète (bien que les quelque 650 espèces répertoriées dépassent les 200 espèces[91] rapportées par certains auteurs). Elle est susceptible de présenter comme espèce un synonyme d'une autre déjà listée, les espèces du genre Corbicula faisant régulièrement l'objet de révisions[92].
-Cette liste est issue de la compilation de listes de bases de données (Catalogue of Life, National Center for Biotechnology Information, Paleobiology Database...) avec comme base celle du "MUSSEL project"[93].
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces du genre Corbicula présentent une large variation de morphologie ce qui rend difficile leur identification, en particulier au stade juvénile, et peut conduire à décrire plus d'espèces que de nécessaire ou au contraire conduire à des confusions.
+La liste des espèces présentée ci-après est probablement incomplète (bien que les quelque 650 espèces répertoriées dépassent les 200 espèces rapportées par certains auteurs). Elle est susceptible de présenter comme espèce un synonyme d'une autre déjà listée, les espèces du genre Corbicula faisant régulièrement l'objet de révisions.
+Cette liste est issue de la compilation de listes de bases de données (Catalogue of Life, National Center for Biotechnology Information, Paleobiology Database...) avec comme base celle du "MUSSEL project".
 Remarque :
-Parmi les nombreux noms d'espèces de Corbicula que l'on peut trouver dans les bases de données ou dans la littérature certains sont issus d'erreurs de dactylographie et sont donc non valides. Ils sont identifiés dans les revues d'opinions taxonomiques par le terme latin [sic]. On peut par exemple citer le cas de Corbicula amiralis [sic] Prime, 1870[94] qui est en fait Corbicula ammiralis Prime, 1869[95] (on remarque ici que l'erreur est faite par Temple Prime lui-même), ou encore le cas de Corbicula irawadica [sic] Blanford, 1880[96] et Corbicula irawaddica [sic] Blanford, 1880[97] qui sont en fait Corbicula iravadica Blanford, 1880[98]. Les erreurs dactylographiques rencontrées proviennent principalement d'oublis de lettres (comme le i) et de confusions (comme entre le o et le a).
-Liste alphabétique :
-A
-Corbicula aboula Pallary, 1909[99],[100],[101]
-† Corbicula (Donacopsis) acutangularis (Deshayes, 1857)[102],[103],[104],[105],[106],[107],[108],[109]
-Corbicula adunca Heude, 1880[110],[111],[112]
-Corbicula aegyptiaca Bourguignat, 1885[113],[114],[100]
-† Corbicula aequilateralis Meek, 1873[115]
-† Corbicula affinis (Münster, 1839)[116],[117],[118],[119]
-† Corbicula affuvelensis Matheron, MS[119]
-Corbicula africana (Krauss, 1848)[120],[121],[122],[123],[124],[125]
+Parmi les nombreux noms d'espèces de Corbicula que l'on peut trouver dans les bases de données ou dans la littérature certains sont issus d'erreurs de dactylographie et sont donc non valides. Ils sont identifiés dans les revues d'opinions taxonomiques par le terme latin [sic]. On peut par exemple citer le cas de Corbicula amiralis [sic] Prime, 1870 qui est en fait Corbicula ammiralis Prime, 1869 (on remarque ici que l'erreur est faite par Temple Prime lui-même), ou encore le cas de Corbicula irawadica [sic] Blanford, 1880 et Corbicula irawaddica [sic] Blanford, 1880 qui sont en fait Corbicula iravadica Blanford, 1880. Les erreurs dactylographiques rencontrées proviennent principalement d'oublis de lettres (comme le i) et de confusions (comme entre le o et le a).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Corbicula</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Corbicula</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Liste alphabétique :</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Corbicula aboula Pallary, 1909
+† Corbicula (Donacopsis) acutangularis (Deshayes, 1857)
+Corbicula adunca Heude, 1880
+Corbicula aegyptiaca Bourguignat, 1885
+† Corbicula aequilateralis Meek, 1873
+† Corbicula affinis (Münster, 1839)
+† Corbicula affuvelensis Matheron, MS
+Corbicula africana (Krauss, 1848)
 Corbicula africana albida (Krauss, 1848)
 Corbicula agrensis Prime, 1861
 Corbicula alba Clessin, 1879
@@ -798,9 +1201,47 @@
 Corbicula aurea Heude, 1880
 Corbicula aurea Nesemann &amp; Sharma, 2007
 Corbicula australis (Deshayes, 1830)
-Corbicula awajiensis Pilsbry, 1901
-B
-† Corbicula bannisteri Meek, 1873
+Corbicula awajiensis Pilsbry, 1901</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Corbicula</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Corbicula</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Liste alphabétique :</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>† Corbicula bannisteri Meek, 1873
 Corbicula baronialis Prime, 1869
 † Corbicula basterotiaeformis Cossmann, 1906
 Corbicula baudoni Morlet, 1886
@@ -826,9 +1267,47 @@
 † Corbicula britannica Wood, 1877
 † Corbicula brongniartii (Basterot, 1825)
 Corbicula brunea Prime, 1860
-Corbicula bubastica Pallary, 1909
-C
-Corbicula callipyga Bourguignat, 1885
+Corbicula bubastica Pallary, 1909</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Corbicula</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Corbicula</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Liste alphabétique :</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Corbicula callipyga Bourguignat, 1885
 † Corbicula callista (Boettger, 1880)
 Corbicula cameroni Bourguignat, 1885
 Corbicula capivaris Simone, 2006
@@ -897,9 +1376,47 @@
 Corbicula cyraenopsis (Lamarck, 1798)
 Corbicula cyreniformis Prime, 1860
 † Corbicula cyrenoides (Deshayes, 1857)
-† Corbicula cytheriformis (Meek &amp; Hayden, 1860)
-D
-Corbicula dautzenbergi Prashad, 1928
+† Corbicula cytheriformis (Meek &amp; Hayden, 1860)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Corbicula</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Corbicula</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Liste alphabétique :</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Corbicula dautzenbergi Prashad, 1928
 Corbicula dayakorum Issel, 1874
 Corbicula debilis (Gould, 1850)
 Corbicula debrixiana Heude, 1880
@@ -927,11 +1444,49 @@
 † Corbicula dulwichensis (Rickman, 1860)
 Corbicula dumblei Anderson 1905
 † Corbicula durkeei (Meek, 1870)
-† Corbicula dutemplei (Deshayes, 1857)
-E
-Corbicula elatior Martens, 1905
+† Corbicula dutemplei (Deshayes, 1857)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Corbicula</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Corbicula</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Liste alphabétique :</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Corbicula elatior Martens, 1905
 † Corbicula elchaensis Rusconi, 1949
-† Corbicula elegans (Lamarck[126], 1806)
+† Corbicula elegans (Lamarck, 1806)
 Corbicula elongata Clessin, 1879
 † Corbicula emacerata Whitfield, 1885
 † Corbicula emirensis Devjatilova, 1980
@@ -946,9 +1501,47 @@
 † Corbicula exarata (Deshayes, 1824)
 † Corbicula eximia Huang &amp; Guo 1982
 † Corbicula exporrecta (Martin, 1885)
-Corbicula exquisita Marshall, 1924
-F
-Corbicula faba Bullen, 1904
+Corbicula exquisita Marshall, 1924</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Corbicula</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Corbicula</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Liste alphabétique :</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Corbicula faba Bullen, 1904
 † Corbicula fabulina (Deshayes, 1860)
 † Corbicula faujasii (Deshayes, 1830)
 Corbicula feliciani Locard, 1883
@@ -978,9 +1571,47 @@
 Corbicula frivaldskyana (Zelebor, MS)
 Corbicula fulgida Bullen, 1901
 Corbicula fuscata (Lamarck, 1818)
-Corbicula fuscata atrata Reinhard, 1878
-G
-† Corbicula gabbiana Henderson, 1920
+Corbicula fuscata atrata Reinhard, 1878</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Corbicula</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Corbicula</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Liste alphabétique :</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>† Corbicula gabbiana Henderson, 1920
 Corbicula gabonensis Preston, 1909
 † Corbicula galloprovincialis (Matheron, 1842)
 † Corbicula gardanensis (Matheron, 1842)
@@ -1008,9 +1639,47 @@
 Corbicula gryphaea Heude, 1880
 Corbicula guahybensis Marshall, 1927
 Corbicula gubernatoria Prime, 1870
-Corbicula gustaviana Martens, 1900
-H
-† Corbicula hamlini Whitfield, 1891
+Corbicula gustaviana Martens, 1900</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Corbicula</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Corbicula</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Liste alphabétique :</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>† Corbicula hamlini Whitfield, 1891
 Corbicula hammalis (Rafinesque, 1820)
 Corbicula heardi Brandt, 1974
 † Corbicula (Donacopsis) heberti (Deshayes, 1857)
@@ -1023,9 +1692,47 @@
 Corbicula hohenackeri Clessin, 1879
 Corbicula holstiana Schlesch, 1908
 † Corbicula hukayai Otatume, 1943
-Corbicula huttoniana Clessin, 1887
-I
-† Corbicula iburica (Yokoyama, 1931)
+Corbicula huttoniana Clessin, 1887</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Corbicula</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Corbicula</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Liste alphabétique :</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>† Corbicula iburica (Yokoyama, 1931)
 Corbicula ignobilis Heude, 1880
 Corbicula iheringi Marshall, 1927
 Corbicula imperialis Prime, 1869
@@ -1043,9 +1750,47 @@
 † Corbicula (Loxoptychodon) intermedia (Melleville, 1843)
 Corbicula iodina Heude, 1880
 Corbicula iravadica Blanford, 1880
-Corbicula iridinea Heude, 1880
-J
-Corbicula jagori von Martens, 1897
+Corbicula iridinea Heude, 1880</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Corbicula</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Corbicula</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Liste alphabétique :</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Corbicula jagori von Martens, 1897
 Corbicula japonica (en) Prime, 1867
 Corbicula javana Clessin, 1879
 Corbicula javanica (Mousson, 1849)
@@ -1054,9 +1799,47 @@
 Corbicula jickeli Clessin, 1879
 † Corbicula jilinensis Zhu &amp; Zhou, 1988
 Corbicula jouberti Bourguignat, 1885
-Corbicula jullieniana Clessin, 1887
-K
-† Corbicula kamtschatica Krishtofovich, 1947
+Corbicula jullieniana Clessin, 1887</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Corbicula</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Corbicula</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Liste alphabétique :</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>† Corbicula kamtschatica Krishtofovich, 1947
 Corbicula khedivialis Pallary, 1909
 Corbicula kirkii Prime, 1864
 † Corbicula kobelti Yokoyama, 1922
@@ -1064,9 +1847,47 @@
 † Corbicula kovatchensis Slodkewitsch, 1938
 Corbicula krishnaea Ray, 1967
 † Corbicula krishtofovichae Sinelnikova, 1997
-Corbicula kynganica Germain, 1906
-L
-Corbicula lacoini Germain, 1905
+Corbicula kynganica Germain, 1906</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Corbicula</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Corbicula</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Liste alphabétique :</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Corbicula lacoini Germain, 1905
 Corbicula lacunae Djajasasmita, 1977
 Corbicula lacunosa Pallary, 1909
 Corbicula lacustris Martens, 1897
@@ -1096,9 +1917,47 @@
 † Corbicula lucina Matheron, MS
 Corbicula lutea (Morelet, 1862)
 Corbicula luteola Prashad, 1928
-Corbicula lydigiana Prime, 1861
-M
-† Corbicula (Leptesthes) macropistha White, 1878
+Corbicula lydigiana Prime, 1861</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Corbicula</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Corbicula</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Liste alphabétique :</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>† Corbicula (Leptesthes) macropistha White, 1878
 Corbicula madagascariensis Smith, 1882
 Corbicula mahalonensis Kruimel, 1913
 Corbicula mahmoudiana Pallary, 1909
@@ -1139,9 +1998,47 @@
 Corbicula moussoni Deshayes, 1854
 Corbicula mulleriana Prime, 1864
 † Corbicula muratai (Nagao &amp; Ôtatume, 1943)
-Corbicula mussoni (Iredale, 1943)
-N
-† Corbicula nakayamana Ueji, 1934
+Corbicula mussoni (Iredale, 1943)</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Corbicula</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Corbicula</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Liste alphabétique :</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>† Corbicula nakayamana Ueji, 1934
 † Corbicula nansensis Matheron, MS
 Corbicula natalensis Clessin, 1879
 Corbicula nea Pallary, 1909
@@ -1160,9 +2057,47 @@
 † Corbicula nouleti Matheron, MS
 † Corbicula nucalis (Meek, 1870)
 † Corbicula nucleolata Matheron, MS
-Corbicula nyassana Bourguignat, 1888
-O
-† Corbicula obesa White, 1878
+Corbicula nyassana Bourguignat, 1888</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Corbicula</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Corbicula</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Liste alphabétique :</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>† Corbicula obesa White, 1878
 † Corbicula obliqua (Deshayes, 1824)
 Corbicula oblonga Clessin, 1879
 † Corbicula obovata (Sowerby, 1817)
@@ -1189,9 +2124,47 @@
 Corbicula ovalis Prime, 1860
 Corbicula ovata Clessin, 1879
 Corbicula ovatella Mabille, 1889
-Corbicula oxiana (Martens, 1876)
-P
-† Corbicula panormitana (Bivona, 1839)
+Corbicula oxiana (Martens, 1876)</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Corbicula</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Corbicula</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Liste alphabétique :</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>† Corbicula panormitana (Bivona, 1839)
 Corbicula papua (Lesson, 1830)
 Corbicula papyracea Heude, 1880
 Corbicula paranacensis (Orbigny, 1835)
@@ -1244,12 +2217,88 @@
 Corbicula pulchella (Mousson, 1849)
 Corbicula pullata (Philippi, 1851)
 Corbicula purpurea Prime, 1864
-Corbicula pusilla (Philippi, 1846)
-Q
-Corbicula quilonica Benson, 1860
-Corbicula quilonensis Prime, 1867
-R
-Corbicula radiata (Philippi, 1846)
+Corbicula pusilla (Philippi, 1846)</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Corbicula</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Corbicula</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Liste alphabétique :</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Corbicula quilonica Benson, 1860
+Corbicula quilonensis Prime, 1867</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Corbicula</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Corbicula</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Liste alphabétique :</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Corbicula radiata (Philippi, 1846)
 Corbicula radiata edwardi Pilsbry &amp; Bequaert, 1927
 Corbicula radiata tanganyicensis Crosse, 1881
 Corbicula rathouisiana Heude, 1880
@@ -1269,9 +2318,47 @@
 † Corbicula rugifera Cossmann, 1885
 † Corbicula rugosa (Sowerby, 1836)
 † Corbicula rustica (Martin, 1885)
-Corbicula rypara Pallary, 1909
-S
-Corbicula sadoensis Pilsbry, 1901
+Corbicula rypara Pallary, 1909</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Corbicula</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Corbicula</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Liste alphabétique :</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Corbicula sadoensis Pilsbry, 1901
 † Corbicula saharica Fischer, 1878
 † Corbicula (Cyrenobatissa) sakakibarai (Otatume, 1943)
 † Corbicula sanchuensis Yabe &amp; Nagao, 1926
@@ -1339,9 +2426,47 @@
 Corbicula surinamica Clessin, 1879
 † Corbicula susaensis Yakuschina, 1968
 Corbicula sylhetica Preston, 1908
-Corbicula syriaca Locard, 1883
-T
-† Corbicula takasago Nomura, 1933
+Corbicula syriaca Locard, 1883</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Corbicula</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Corbicula</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Liste alphabétique :</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>† Corbicula takasago Nomura, 1933
 Corbicula tanganikana Bourguignat, 1885
 † Corbicula tangica Iqbal, 1969
 † Corbicula taramellii (Stefanini, 1915)
@@ -1383,17 +2508,93 @@
 Corbicula tsadiana Martens, 1903
 Corbicula tumida Deshayes, 1854
 Corbicula turgida Pallary, 1909
-Corbicula tweediei Prashad, 1940
-U
-† Corbicula (Corbicula) uejii Matsubara, Kurita &amp; Matsuo, 2010
+Corbicula tweediei Prashad, 1940</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Corbicula</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Corbicula</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Liste alphabétique :</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>† Corbicula (Corbicula) uejii Matsubara, Kurita &amp; Matsuo, 2010
 † Corbicula ulgonensis Volobueva, 1981
 Corbicula umbonata Clessin, 1879
 † Corbicula umbonella White, 1883
 Corbicula uncinulata Heude, 1880
 Corbicula (Cyanocyclas) undulata Marshall, 1927
-† Corbicula unioniformis (Deshayes, 1860)
-V
-† Corbicula (Loxoptychodon) vapincana (Orbigny, 1847)
+† Corbicula unioniformis (Deshayes, 1860)</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Corbicula</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Corbicula</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Liste alphabétique :</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>† Corbicula (Loxoptychodon) vapincana (Orbigny, 1847)
 † Corbicula vara Gardner, 1932
 Corbicula variegata (Orbigny, 1835)
 Corbicula variegata Morlet, 1886
@@ -1410,19 +2611,133 @@
 Corbicula viridula Clessin, 1879
 Corbicula vokesi Brandt, 1974
 Corbicula vokesi vonpaulseni Brandt, 1974
-Corbicula vulgaris Prime, 1866
-W
-† Corbicula wajampolkensis Ilyina, 1963
+Corbicula vulgaris Prime, 1866</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Corbicula</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Corbicula</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Liste alphabétique :</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>† Corbicula wajampolkensis Ilyina, 1963
 † Corbicula williamsoni Anderson &amp; Hanna, 1925
 † Corbicula willisi White, 1889
-Corbicula woodiana (Lea, 1832)
-Y
-† Corbicula yixingensis Huang &amp; Cai, 2005
+Corbicula woodiana (Lea, 1832)</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Corbicula</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Corbicula</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Liste alphabétique :</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>† Corbicula yixingensis Huang &amp; Cai, 2005
 Corbicula yokahamensis (Sowerby, 1878)
 † Corbicula (Mesocorbicula) yumenensis Gu, 1976
-Corbicula yunnanensis Nevill, 1877
-Z
-Corbicula zelebori Jickeli, 1874
+Corbicula yunnanensis Nevill, 1877</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Corbicula</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Corbicula</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Liste alphabétique :</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Z</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Corbicula zelebori Jickeli, 1874
 † Corbicula zhidkovae Kafanov, 1996</t>
         </is>
       </c>
